--- a/Lab5_template.xlsx
+++ b/Lab5_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">1. Login as Admin
 2. Select the Posts feature and create a new post
 3. Click cancel button on delete post window.
-4. The system still  not show the post on post list.</t>
+4. The system still show the post on post list.</t>
   </si>
   <si>
     <r>
@@ -644,6 +644,11 @@
 2. Select the Comments feature and create a new comment
 3. Enter the comment author and post and save it
 4. The system shows the new comment is created successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. KeystoneJS is running
+2. Have a edge browser opened at home page of KeystoneJS
+3. Have a post named "post for comment"</t>
   </si>
   <si>
     <r>
@@ -692,7 +697,7 @@
 $username="demo@keystonejs.com"
 $password="demo"
 $author={null, Demo User} 
-$post={null, default}</t>
+$post={null, post for comments}</t>
   </si>
   <si>
     <t xml:space="preserve">A new comment is created with correct author and post.
@@ -736,6 +741,403 @@
       </rPr>
       <t xml:space="preserve"> realted the sunny and alternative scenarios of creating a comment</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-005a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Login as Admin
+2. Select the Comments feature and create a new comment
+3. Delete the new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+4. The system have not show the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> list.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Select the feature "Comment" 
+4. Create the comment author is null, the post is null
+5. Select Comment in header
+6. Select the delete button with the post created in test step 4
+7. Select "Delete" in pop window
+8. Verify that if the comment is deleted successfully
+9. Verify that if the renderings of all corresponding pages follow the design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$url="http://127.0.0.1:3000/"
+$username="demo@keystonejs.com"
+$password="demo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the deleted comment should diappear while select "Delete", remain while select "Cancel" in Comments page.
+The rendering of all pages are collected according to specifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Logout from the page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Test </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">all meaningful paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> realted the sunny and alternative scenarios of delete a comment</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-005b</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Login as Admin
+2. Select the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Comments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> feature and create a new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">comment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. Click cancel button on delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> window.
+4. The system still show the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> list.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Select the feature "Comment" 
+4. Create the comment author is null, the post is null
+5. Select Comment in header
+6. Select the delete button with the post created in test step 4
+7. Select Cancel" in pop out page
+8. Verify that if the comment is not deleted
+9. Verify that if the renderings of all corresponding pages follow the design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Delete the comment created in test step
+2. Logout from the page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-006a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editComment (Happy Path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as Admin
+2. Select the Comments feature and create a new comment
+3. Edit the comment
+4. Save the changes
+5. The system shows the comment is edited successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Select the feature "Comment" 
+4. Create the comment author is null, the post is null
+5. Select the comment created in test step 4
+6. Edit comment information using $author, $post, $Comment State and $Content.
+7. Save the comment
+8. Verify that if the comment is edited successfully when using valid $author, $post, $Comment State and $Content
+9. Select Comment in header
+10. Verify that if the renderings of all corresponding pages follow the design
+11. Select the comment created in test step 4
+12. Verify that if the author, post, comment state, content of the comment is correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$url="http://127.0.0.1:3000/"
+$username="demo@keystonejs.com"
+$password="demo"
+$author={null, Demo User} 
+$post={null, default}
+$Comment State={Published, Draft, Archived}
+$Content={null, BLANK_SPACE, string of NORMAL_LENGTH, string with mixed characters, digits, and symbols}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the edit comment is modified with correct comment title and message.
+Any incorrect input will be catched and a meaningful error messages will be prompted.
+The rendering of all pages are collected according to specifications.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Test </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">all meaningful paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> realted the sunny and alternative scenarios of editing a comment</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-006b</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">editComment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (alternative path)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as Admin
+2. Select the Comments feature and create a new comment
+3. Edit the comment
+4. Reset the changes
+5. The system shows the comment is edited fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Select the feature "Comment" 
+4. Create the comment author is null, the post is null
+5. Select the comment created in test step 4
+6. Edit comment information using $author, $post, $Comment State and $Content.
+7. Reset changes of the comment
+8. Verify that if the comment reset changes
+9. Select Comment in header
+10. Verify that if the renderings of all corresponding pages follow the design
+11. Select the comment created in test step 4
+12. Verify that if the author, post, comment state, content of the comment is correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$url="http://127.0.0.1:3000/"
+$username="demo@keystonejs.com"
+$password="demo"
+$author={Demo User} 
+$post={post for comment}
+$Comment State={Draft}
+$Content= {test}</t>
   </si>
 </sst>
 </file>
@@ -745,7 +1147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -801,6 +1203,14 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -844,7 +1254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -885,6 +1295,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,20 +1324,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="16.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="16.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.09"/>
@@ -1138,27 +1560,139 @@
         <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="178.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="E12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="I12" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4"/>
-      <c r="D10" s="6"/>
+    <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Lab5_template.xlsx
+++ b/Lab5_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -1138,6 +1138,177 @@
 $post={post for comment}
 $Comment State={Draft}
 $Content= {test}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-007a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateCategory (happy path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as Admin
+2. Select the Categories feature and create a new category
+3. Enter the category name and save it
+4. The system shows the new category is created successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Select the feature "Categories"
+4. Click create button
+5. Enter the category name using $category
+6. Select "Create"
+7. Verify that if a new $category is created successfully when using valid $category
+8. Verify that if the renderings of all corresponding pages follow the design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$url="http://127.0.0.1:3000/"
+$username="demo@keystonejs.com"
+$password="demo"
+$category={BLANK_SPACE, string of NORMAL_LENGTH, string with mixed characters, digits, and symbols, duplicate category name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A new category is created with correct category name.
+The rendering of all pages are collected according to specifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Delete the category just created (if create successful)
+2. Logout from the page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Test </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">all meaningful paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> realted the sunny and alternative scenarios of creating a category</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-007b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as Admin
+2. Select the Categories feature and create a new category
+3. Enter the category name with invalid name
+4. The system shows a corresponding error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Select the feature "Categories"
+4. Click create button
+5. Enter the category name using $category
+6. Select "Create"
+7. Verify that if the exception handling is functioning correctly when using invalid $category
+8. Verify that the categories is create fail.
+9. Verify that if the renderings of all corresponding pages follow the design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$url="http://127.0.0.1:3000/"
+$username="demo@keystonejs.com"
+$password="demo"
+$category={null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any incorrect input will be catched and a meaningful error messages will be prompted.
+The rendering of all pages are collected according to specifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-008a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show Posts Of Category On Blog (Happy path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as Admin
+2. Go to Blog Page
+3. Select Category
+4. The system shows a post which the post has target category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. KeystoneJS is running
+2. Have a edge browser opened at home page of KeystoneJS
+3. Have at least one category existed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Select the feature "Categoryies"
+4. Create a new category named "category"
+5. Create a new Post named "default"
+6. Select category "category" in post
+7. Select State to "Published" in post
+8. Go to Blog Page
+9. Select Category "category"
+10. Verify that if post named "default" show
+11. Verify that if the renderings of all corresponding pages follow the design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The post should show while select the specific category on "Blog" page.
+Any incorrect input will be catched and a meaningful error messages will be prompted.
+The rendering of all pages are collected according to specifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Delete the category, post created in test steps
+2. Logout from the page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Test </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">all meaningful paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> realted the sunny and alternative scenarios of showing posts of the specific category by pressing category name on the "Blog" page</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1324,16 +1495,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="16.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76"/>
@@ -1375,6 +1546,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
+    <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" s="7" customFormat="true" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
@@ -1692,6 +1864,93 @@
       </c>
       <c r="I13" s="10" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Lab5_template.xlsx
+++ b/Lab5_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Input Data (for Perfroming the Actions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage Criteria</t>
   </si>
   <si>
     <t xml:space="preserve">Expected Results and Acceptance Criteria to be Verified (Then)</t>
@@ -112,6 +115,61 @@
 $password="demo"
 $title={"test"}
 $message={"Hi, there!"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Each Choice criterion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for $title and $message
+2. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Basis Path Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the paths</t>
+    </r>
   </si>
   <si>
     <r>
@@ -276,6 +334,40 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Basis Path Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the paths related to Post </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">The new post is create fail with invalid post title and message.
 All the acceptance criteria are satisified, including page rendering.</t>
   </si>
@@ -342,6 +434,39 @@
     <t xml:space="preserve">$url="http://127.0.0.1:3001/"
 $username="demo@keystonejs.com"
 $password="demo"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Basis Path Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the paths</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">the deleted post should diappear while select "Delete", remain while select "Cancel" in Posts page.
@@ -698,6 +823,61 @@
 $password="demo"
 $author={null, Demo User} 
 $post={null, post for comments}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Each Choice criterion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for $author and $post.
+2. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Basis Path Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the paths</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">A new comment is created with correct author and post.
@@ -1168,6 +1348,61 @@
 $category={BLANK_SPACE, string of NORMAL_LENGTH, string with mixed characters, digits, and symbols, duplicate category name}</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Each Choice criterion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for $category
+2. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Basis Path Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the paths</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">A new category is created with correct category name.
 The rendering of all pages are collected according to specifications.</t>
   </si>
@@ -1269,6 +1504,9 @@
 11. Verify that if the renderings of all corresponding pages follow the design</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Use Basis Path Coverage for the paths</t>
+  </si>
+  <si>
     <t xml:space="preserve">The post should show while select the specific category on "Blog" page.
 Any incorrect input will be catched and a meaningful error messages will be prompted.
 The rendering of all pages are collected according to specifications.</t>
@@ -1309,6 +1547,18 @@
       </rPr>
       <t xml:space="preserve"> realted the sunny and alternative scenarios of showing posts of the specific category by pressing category name on the "Blog" page</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-009a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create enquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-010a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete enquiry</t>
   </si>
 </sst>
 </file>
@@ -1495,23 +1745,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.09"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1542,418 +1793,484 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="7" customFormat="true" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="153.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="230.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="194.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="168.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="146.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="115.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="H10" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="I11" s="10" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="178.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="I13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="14" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="102.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="10" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>101</v>
+        <v>68</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Lab5_template.xlsx
+++ b/Lab5_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="140">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -926,6 +926,9 @@
     <t xml:space="preserve">TC-005a</t>
   </si>
   <si>
+    <t xml:space="preserve">deleteComment (happy path)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1059,6 +1062,28 @@
   </si>
   <si>
     <t xml:space="preserve">TC-005b</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">deleteComment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (alternative path)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1552,13 +1577,422 @@
     <t xml:space="preserve">TC-009a</t>
   </si>
   <si>
-    <t xml:space="preserve">create enquiry</t>
+    <t xml:space="preserve">create enquiry (happy path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as Admin
+2. Go To Contact and create a new enquiry
+3. Enter an valid  Infomation
+4. The system shows a successfully hint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Page
+4. Enter the Name using $name
+5. Enter the Email using $email
+6. Enter the phone using $phone
+7. Select the Regarding using $regarding
+8. Enter the Message using $message
+9. Select "Submit" button
+10. Verify that if the hint text show when create successfully.
+11. Select "Admin UI"
+12. Verify that if a new enquiry is created successfully when using valid $name, $emial, $phone, $regrding or $message
+13. Verify that if the renderings of all corresponding pages follow the design</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">$url="http://127.0.0.1:3000/"
+$username="demo@keystonejs.com"
+$password="demo"
+$name={string of NORMAL_LENGTH, string with mixed characters, digits, and symbols}
+$email={t110598108@ntut.org.tw}
+$phone={null, string of NORMAL_LENGTH, string with mixed characters, digits, and symbols}
+$regarding ={Just leaving a message, I've got a question, Something else…}
+$message={string of NORMAL_LENGTH, string with mixed characters, digits, and symbols}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Use Each Choice criterion for $enquiry
+2. Use Basis Path Coverage for the paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A new enquiry is created with correct name, email, phone, enquiry type, and message.
+Any incorrect input will be catched and a meaningful error messages will be prompted. The rendering of all pages are collected according to specifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Delete the enquiry on test step
+2. Logout from the page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Test </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">all meaningful paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> realted the sunny and alternative scenarios of creating an enquiry on the "Contact" page</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-009b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create enquiry (alternative path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as Admin
+2. Go To Contact and create a new enquiry
+3. Enter an invalid  Infomation
+4. The system shows a exception hint or error page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Page
+4. Enter the Name using $name
+5. Enter the Email using $email
+6. Enter the phone using $phone
+7. Select the Regarding using $regarding
+8. Enter the Message using $message
+9. Select "Submit" button
+10. Verify that if the hint text show when create fail or enter to error page.
+11. Verify that if the renderings of all corresponding pages follow the design</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">$url="http://127.0.0.1:3000/"
+$username="demo@keystonejs.com"
+$password="demo"
+$name={null}
+$email={null, string of not match email format}
+$phone={0912345678}
+$regarding ={null}
+$message={null}
+</t>
   </si>
   <si>
     <t xml:space="preserve">TC-010a</t>
   </si>
   <si>
-    <t xml:space="preserve">delete enquiry</t>
+    <t xml:space="preserve">delete enquiry (happy path)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Login as Admin
+2. Go To Contact Page and create a new enquiry
+3. Go To Enquiry Page On Admin UI
+4. Delete the new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">enquiry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+5. The system have not show the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">enquiry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">enquiry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> list.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. KeystoneJS is running
+2. Have a edge browser opened at home page of KeystoneJS
+3. Have at least one enquiry existed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Go To Contanct Page
+4. Create the Enquire using $name, $email, $phone, $regarding, $message in TestData
+5. Click Submit Button
+6. Go To Enquiry Page On Admin UI 
+7. Select the delete button with the enquiry created in test step 4
+8. Click confirm Delete button
+9. Verify that if the enquiry is deleted
+10. Verify that if the renderings of all corresponding pages follow the design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$url="http://127.0.0.1:3000/"
+$username="demo@keystonejs.com"
+$password="demo"
+$name={test}
+$email={t110598108@ntut.org.tw}
+$phone={0912345678}
+$regarding ={Just leaving a message}
+$message={test}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the deleted enquiry should diappear while select "Delete", remain while select "Cancel" in Enquiry page.
+The rendering of all pages are collected according to specifications.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Test </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">all meaningful paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> realted the sunny and alternative scenarios of delete an enquiry on the "Contact" page</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-010b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete enquiry (alternative path)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Login as Admin
+2. Go To Contact Page and create a new enquiry
+3. Go To Enquiry Page On Admin UI
+4. Delete the new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">enquiry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and Click cancel delete button
+5. The system have still show the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">enquiry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">enquiry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> list.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto to Login page using URL=$url
+2. Login as Admin using $username and $password
+3. Go To Contanct Page
+4. Create the Enquire using $name, $email, $phone, $regarding, $message in TestData
+5. Click Submit Button
+6. Go To Enquiry Page On Admin UI 
+7. Select the delete button with the enquiry created in test step 4
+8. Click Cancel button
+9. Verify that if the enquiry is not deleted
+10. Verify that if the renderings of all corresponding pages follow the design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Delete the enquiry created in test steps
+2. Logout from the page</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +2109,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1701,6 +2135,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1745,20 +2183,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ18"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="90.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.53"/>
@@ -1801,7 +2239,7 @@
       <c r="M1" s="1"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="3" s="7" customFormat="true" ht="153.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="8" customFormat="true" ht="153.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +2258,7 @@
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1853,7 +2291,7 @@
       <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1885,7 +2323,7 @@
       <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1917,7 +2355,7 @@
       <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
@@ -1947,10 +2385,10 @@
       <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -1964,7 +2402,7 @@
       <c r="A8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1979,8 +2417,8 @@
       <c r="F8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -2027,249 +2465,356 @@
         <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>71</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="10" t="s">
+      <c r="E11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>71</v>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="178.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>82</v>
+      <c r="J12" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="I13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="102.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="E14" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="G14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="11" t="s">
         <v>96</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>68</v>
+      <c r="D16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="H16" s="11" t="s">
         <v>110</v>
       </c>
+      <c r="I16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="270.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="E17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="270.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="177.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="159.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
